--- a/Report/Team3 - CLC02 - Grading Scheme.xlsx
+++ b/Report/Team3 - CLC02 - Grading Scheme.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MinhTran\Downloads\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthcmusedu-my.sharepoint.com/personal/22127275_student_hcmus_edu_vn/Documents/Programming/Projects/CSC10002-Group-A-Course-Management-System/Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C997397C-50F5-4432-8F60-6F24211B3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C997397C-50F5-4432-8F60-6F24211B3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7061CA2D-4BA8-4C64-8BF6-E4B36F2F2E14}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -377,16 +377,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,8 +604,8 @@
   </sheetPr>
   <dimension ref="A1:K1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -939,13 +936,13 @@
         <v>27</v>
       </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -974,7 +971,7 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="0"/>
@@ -1049,642 +1046,686 @@
       <c r="K22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="13">
         <v>1</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="13">
         <v>5</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>5</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16">
+      <c r="E23" s="13">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13">
         <v>0</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="13">
         <v>0</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="13">
         <v>1</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="13">
         <v>4</v>
       </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="A24" s="13">
         <v>2</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="13">
         <v>5</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="13">
         <v>5</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16">
+      <c r="E24" s="13">
+        <v>5</v>
+      </c>
+      <c r="F24" s="13">
         <v>0</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="13">
         <v>0</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="13">
         <v>1</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="13">
         <v>4</v>
       </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="13">
         <v>3</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="13">
         <v>5</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="13">
         <v>5</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16">
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="13">
         <v>0</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="13">
         <v>0</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="13">
         <v>1</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="13">
         <v>4</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="13">
         <v>4</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="13">
         <v>5</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="13">
         <v>5</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16">
+      <c r="E26" s="13">
+        <v>5</v>
+      </c>
+      <c r="F26" s="13">
         <v>1</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="13">
         <v>0</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="13">
         <v>4</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+      <c r="A27" s="13">
         <v>5</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="13">
         <v>5</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="13">
         <v>5</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16">
+      <c r="E27" s="13">
+        <v>5</v>
+      </c>
+      <c r="F27" s="13">
         <v>0</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="13">
         <v>0</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="13">
         <v>5</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="13">
         <v>6</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="13">
         <v>5</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="13">
         <v>5</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16">
+      <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" s="13">
         <v>0</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="13">
         <v>0</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="13">
         <v>3</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="13">
         <v>2</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="13">
         <v>7</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="13">
         <v>5</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="13">
         <v>5</v>
       </c>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16">
+      <c r="E29" s="13">
+        <v>5</v>
+      </c>
+      <c r="F29" s="13">
         <v>0</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="13">
         <v>0</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="13">
         <v>3</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="13">
         <v>2</v>
       </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+      <c r="A30" s="13">
         <v>8</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="13">
         <v>5</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="13">
         <v>5</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16">
+      <c r="E30" s="13">
+        <v>5</v>
+      </c>
+      <c r="F30" s="13">
         <v>0</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="13">
         <v>0</v>
       </c>
-      <c r="H30" s="16">
+      <c r="H30" s="13">
         <v>3</v>
       </c>
-      <c r="I30" s="16">
+      <c r="I30" s="13">
         <v>2</v>
       </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+      <c r="A31" s="13">
         <v>9</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="13">
         <v>5</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="13">
         <v>5</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16">
+      <c r="E31" s="13">
+        <v>5</v>
+      </c>
+      <c r="F31" s="13">
         <v>0</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="13">
         <v>0</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="13">
         <v>3</v>
       </c>
-      <c r="I31" s="16">
+      <c r="I31" s="13">
         <v>2</v>
       </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
+      <c r="A32" s="13">
         <v>10</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="13">
         <v>5</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="13">
         <v>5</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16">
+      <c r="E32" s="13">
+        <v>5</v>
+      </c>
+      <c r="F32" s="13">
         <v>0</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="13">
         <v>0</v>
       </c>
-      <c r="H32" s="16">
+      <c r="H32" s="13">
         <v>4</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="13">
         <v>1</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="13">
         <v>11</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="13">
         <v>5</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="13">
         <v>5</v>
       </c>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16">
+      <c r="E33" s="13">
+        <v>5</v>
+      </c>
+      <c r="F33" s="13">
         <v>0</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="13">
         <v>1</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="13">
         <v>4</v>
       </c>
-      <c r="I33" s="16">
+      <c r="I33" s="13">
         <v>0</v>
       </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="A34" s="13">
         <v>12</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="13">
         <v>5</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="13">
         <v>5</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16">
+      <c r="E34" s="13">
+        <v>5</v>
+      </c>
+      <c r="F34" s="13">
         <v>0</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="13">
         <v>1</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="13">
         <v>4</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="13">
         <v>0</v>
       </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
+      <c r="A35" s="13">
         <v>13</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="13">
         <v>5</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="13">
         <v>5</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16">
+      <c r="E35" s="13">
+        <v>5</v>
+      </c>
+      <c r="F35" s="13">
         <v>0</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="13">
         <v>2</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="13">
         <v>3</v>
       </c>
-      <c r="I35" s="16">
+      <c r="I35" s="13">
         <v>0</v>
       </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
+      <c r="A36" s="13">
         <v>15</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="13">
         <v>5</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="13">
         <v>5</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16">
+      <c r="E36" s="13">
+        <v>5</v>
+      </c>
+      <c r="F36" s="13">
         <v>3</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="13">
         <v>2</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="13">
         <v>0</v>
       </c>
-      <c r="I36" s="16">
+      <c r="I36" s="13">
         <v>0</v>
       </c>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="A37" s="13">
         <v>16</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="13">
         <v>5</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="13">
         <v>5</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16">
+      <c r="E37" s="13">
+        <v>5</v>
+      </c>
+      <c r="F37" s="13">
         <v>4</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="13">
         <v>1</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="13">
         <v>0</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="13">
         <v>0</v>
       </c>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="16">
+      <c r="A38" s="13">
         <v>17</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="13">
         <v>5</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="13">
         <v>5</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16">
+      <c r="E38" s="13">
+        <v>5</v>
+      </c>
+      <c r="F38" s="13">
         <v>3</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="13">
         <v>2</v>
       </c>
-      <c r="H38" s="16">
+      <c r="H38" s="13">
         <v>0</v>
       </c>
-      <c r="I38" s="16">
+      <c r="I38" s="13">
         <v>0</v>
       </c>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="16">
+      <c r="A39" s="13">
         <v>18</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="13">
         <v>5</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="13">
         <v>5</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16">
+      <c r="E39" s="13">
+        <v>5</v>
+      </c>
+      <c r="F39" s="13">
         <v>3</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="13">
         <v>2</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="13">
         <v>0</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I39" s="13">
         <v>0</v>
       </c>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
+      <c r="A40" s="13">
         <v>19</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="13">
         <v>5</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="13">
         <v>5</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16">
+      <c r="E40" s="13">
+        <v>5</v>
+      </c>
+      <c r="F40" s="13">
         <v>2</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="13">
         <v>3</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="13">
         <v>0</v>
       </c>
-      <c r="I40" s="16">
+      <c r="I40" s="13">
         <v>0</v>
       </c>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
+      <c r="A41" s="13">
         <v>20</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="13">
         <v>5</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="13">
         <v>5</v>
       </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16">
+      <c r="E41" s="13">
+        <v>5</v>
+      </c>
+      <c r="F41" s="13">
         <v>2</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="13">
         <v>3</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="13">
         <v>0</v>
       </c>
-      <c r="I41" s="16">
+      <c r="I41" s="13">
         <v>0</v>
       </c>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="16">
+      <c r="A42" s="13">
         <v>21</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="13">
         <v>5</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="13">
         <v>5</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16">
+      <c r="E42" s="13">
+        <v>5</v>
+      </c>
+      <c r="F42" s="13">
         <v>2</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="13">
         <v>3</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="13">
         <v>0</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="13">
         <v>0</v>
       </c>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
+      <c r="A43" s="13">
         <v>22</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="13">
         <v>5</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="13">
         <v>5</v>
       </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16">
+      <c r="E43" s="13">
+        <v>5</v>
+      </c>
+      <c r="F43" s="13">
         <v>2</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="13">
         <v>3</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="13">
         <v>0</v>
       </c>
-      <c r="I43" s="16">
+      <c r="I43" s="13">
         <v>0</v>
       </c>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="16">
+      <c r="A44" s="13">
         <v>23</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="13">
         <v>5</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="13">
         <v>5</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16">
+      <c r="E44" s="13">
+        <v>5</v>
+      </c>
+      <c r="F44" s="13">
         <v>2</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="13">
         <v>3</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="13">
         <v>0</v>
       </c>
-      <c r="I44" s="16">
+      <c r="I44" s="13">
         <v>0</v>
       </c>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="11"/>
@@ -1702,62 +1743,66 @@
       <c r="K45" s="11"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
+      <c r="A46" s="13">
         <v>14</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="13">
         <v>5</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="13">
         <v>5</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16">
+      <c r="E46" s="13">
+        <v>5</v>
+      </c>
+      <c r="F46" s="13">
         <v>3</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="13">
         <v>2</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="13">
         <v>0</v>
       </c>
-      <c r="I46" s="16">
+      <c r="I46" s="13">
         <v>0</v>
       </c>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="16">
+      <c r="A47" s="13">
         <v>24</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="13">
         <v>5</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="13">
         <v>5</v>
       </c>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16">
+      <c r="E47" s="13">
+        <v>5</v>
+      </c>
+      <c r="F47" s="13">
         <v>3</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="13">
         <v>2</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="13">
         <v>0</v>
       </c>
-      <c r="I47" s="16">
+      <c r="I47" s="13">
         <v>0</v>
       </c>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="11"/>
